--- a/Retrospective Liver Transplant Data - edited.xlsx
+++ b/Retrospective Liver Transplant Data - edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Retro PLT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8F42F6-773A-490C-AAC7-77D9E9FE3BCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50694E1A-7E58-4C6C-B762-7276FA4CF47B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="460" windowWidth="28800" windowHeight="13500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8640" yWindow="460" windowWidth="28800" windowHeight="13500" firstSheet="2" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="84" sheetId="3" r:id="rId1"/>
@@ -34,8 +34,202 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tan Shi Bei</author>
+  </authors>
+  <commentList>
+    <comment ref="L21" authorId="0" shapeId="0" xr:uid="{4D8F6374-6BBD-4F6D-B081-66FE387EA8A2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tan Shi Bei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Was NA, however, there was a morning and eff 24h dose which implied a known 0mg was given. This reasoning was also used to fill cells with similar situations.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L39" authorId="0" shapeId="0" xr:uid="{9E664B5E-577B-4E19-B04E-9BD6FC56D3D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tan Shi Bei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+From day of discharge onwards, all doses are changed to NA as we are not certain if patient did take that dose.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tan Shi Bei</author>
+  </authors>
+  <commentList>
+    <comment ref="O36" authorId="0" shapeId="0" xr:uid="{C4EE052C-C6BE-4A12-80A9-AD62C9DDBF6E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tan Shi Bei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Was recorded as 3.5mg. Upon checking, the sum of the doses were 4mg. Tiffany confirmed that it should be 4mg. </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tan Shi Bei</author>
+  </authors>
+  <commentList>
+    <comment ref="O48" authorId="0" shapeId="0" xr:uid="{D2D5F771-D738-417C-835A-CF5F1B0C4FCB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tan Shi Bei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+If 'no change in tac dose' was indicated before discharge, the same dose is added in the cells that were previously blank.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tan Shi Bei</author>
+  </authors>
+  <commentList>
+    <comment ref="O20" authorId="0" shapeId="0" xr:uid="{42CC7C4F-41FC-4CE5-B574-5F5D492CA949}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tan Shi Bei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Was 0mg. Upon checking, there was a morning dose of 0.5mg. Tiffany confirmed that it is 0.5mg</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tan Shi Bei</author>
+  </authors>
+  <commentList>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{9B7471B9-8CA1-473C-BE7F-23452D8118CE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Tan Shi Bei:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Was previously N, changed it just for simplicity of avoiding to change the code, which would have read NA as a string instead of the desired NaN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12288" uniqueCount="2119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12328" uniqueCount="2119">
   <si>
     <t>Version No:</t>
   </si>
@@ -6405,7 +6599,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6480,9 +6674,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri (Body)"/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -6678,7 +6880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6762,7 +6964,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -6785,6 +6986,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7071,11 +7278,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DED2A7B-E1B2-BC4C-B317-080C71C9D947}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DED2A7B-E1B2-BC4C-B317-080C71C9D947}">
   <dimension ref="A1:AP52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB39" sqref="A39:XFD39"/>
+    <sheetView topLeftCell="F24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -7249,7 +7456,7 @@
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="5"/>
@@ -7323,12 +7530,12 @@
       <c r="AH17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:42" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
@@ -7457,106 +7664,106 @@
       <c r="D19" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="O19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="R19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="V19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="W19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="X19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL19" s="42" t="s">
+      <c r="E19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="V19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="W19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="X19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AH19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL19" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7615,70 +7822,70 @@
       <c r="R20" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="S20" s="42" t="s">
+      <c r="S20" s="41" t="s">
         <v>70</v>
       </c>
       <c r="T20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="U20" s="42" t="s">
+      <c r="U20" s="41" t="s">
         <v>72</v>
       </c>
       <c r="V20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="W20" s="42" t="s">
+      <c r="W20" s="41" t="s">
         <v>69</v>
       </c>
       <c r="X20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Y20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA20" s="42" t="s">
+      <c r="Y20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA20" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="AB20" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG20" s="42" t="s">
+      <c r="AB20" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG20" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="AH20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM20" s="42"/>
-      <c r="AN20" s="42"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="42"/>
+      <c r="AH20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="41"/>
     </row>
     <row r="21" spans="1:42" s="5" customFormat="1">
       <c r="A21" s="5">
@@ -7696,26 +7903,26 @@
       <c r="E21" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="42" t="s">
+      <c r="G21" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" s="39" t="s">
-        <v>69</v>
+      <c r="I21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="M21" s="39" t="s">
         <v>69</v>
@@ -7723,7 +7930,7 @@
       <c r="N21" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="O21" s="42" t="s">
+      <c r="O21" s="41" t="s">
         <v>75</v>
       </c>
       <c r="P21" s="39" t="s">
@@ -7735,64 +7942,64 @@
       <c r="R21" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="S21" s="42" t="s">
+      <c r="S21" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="T21" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="U21" s="42" t="s">
+      <c r="T21" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="U21" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="V21" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="W21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="X21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA21" s="42" t="s">
+      <c r="V21" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="W21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="X21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA21" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="AB21" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG21" s="42" t="s">
+      <c r="AB21" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG21" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="AH21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL21" s="42" t="s">
+      <c r="AH21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL21" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7809,106 +8016,106 @@
       <c r="D22" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="42">
+      <c r="E22" s="41">
         <v>2.4</v>
       </c>
-      <c r="F22" s="42" t="s">
+      <c r="F22" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="42" t="s">
+      <c r="G22" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="I22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" s="42" t="s">
+      <c r="I22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="M22" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N22" s="42" t="s">
+      <c r="M22" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N22" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="O22" s="42" t="s">
+      <c r="O22" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="P22" s="42" t="s">
+      <c r="P22" s="41" t="s">
         <v>85</v>
       </c>
       <c r="Q22" s="5">
         <v>5.6</v>
       </c>
-      <c r="R22" s="42" t="s">
+      <c r="R22" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="S22" s="42" t="s">
+      <c r="S22" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="T22" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="U22" s="42" t="s">
+      <c r="T22" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="U22" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="V22" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="W22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="X22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA22" s="42" t="s">
+      <c r="V22" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="W22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="X22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA22" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="AB22" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG22" s="42" t="s">
+      <c r="AB22" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG22" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="AH22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL22" s="42" t="s">
+      <c r="AH22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL22" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -7928,103 +8135,103 @@
       <c r="E23" s="5">
         <v>2.8</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="42" t="s">
+      <c r="G23" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="I23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="42" t="s">
+      <c r="I23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="M23" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N23" s="42" t="s">
+      <c r="M23" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N23" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="O23" s="42" t="s">
+      <c r="O23" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="P23" s="42" t="s">
+      <c r="P23" s="41" t="s">
         <v>85</v>
       </c>
       <c r="Q23" s="5">
         <v>5.2</v>
       </c>
-      <c r="R23" s="42" t="s">
+      <c r="R23" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="S23" s="42" t="s">
+      <c r="S23" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="T23" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="U23" s="42" t="s">
+      <c r="T23" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="U23" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="V23" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="W23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="X23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA23" s="42" t="s">
+      <c r="V23" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="W23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="X23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA23" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="AB23" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG23" s="42" t="s">
+      <c r="AB23" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG23" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="AH23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL23" s="42" t="s">
+      <c r="AH23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL23" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8044,103 +8251,103 @@
       <c r="E24" s="5">
         <v>3.2</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="42" t="s">
+      <c r="G24" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L24" s="42" t="s">
+      <c r="I24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="M24" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N24" s="42" t="s">
+      <c r="M24" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="O24" s="42" t="s">
+      <c r="O24" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="P24" s="42" t="s">
+      <c r="P24" s="41" t="s">
         <v>85</v>
       </c>
       <c r="Q24" s="5">
         <v>5</v>
       </c>
-      <c r="R24" s="42" t="s">
+      <c r="R24" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="S24" s="42" t="s">
+      <c r="S24" s="41" t="s">
         <v>99</v>
       </c>
-      <c r="T24" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="U24" s="42" t="s">
+      <c r="T24" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="U24" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="V24" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="W24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="X24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA24" s="42" t="s">
+      <c r="V24" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="W24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="X24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA24" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="AB24" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG24" s="42" t="s">
+      <c r="AB24" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG24" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="AH24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL24" s="42" t="s">
+      <c r="AH24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL24" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8160,106 +8367,106 @@
       <c r="E25" s="5">
         <v>3.1</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G25" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="42" t="s">
+      <c r="G25" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="I25" s="42" t="s">
+      <c r="I25" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="J25" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="K25" s="42" t="s">
+      <c r="J25" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="K25" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="L25" s="42" t="s">
+      <c r="L25" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="M25" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N25" s="42" t="s">
+      <c r="M25" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="O25" s="42" t="s">
+      <c r="O25" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P25" s="42" t="s">
+      <c r="P25" s="41" t="s">
         <v>85</v>
       </c>
       <c r="Q25" s="5">
         <v>4.9000000000000004</v>
       </c>
-      <c r="R25" s="42" t="s">
+      <c r="R25" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="S25" s="42" t="s">
+      <c r="S25" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="T25" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="U25" s="42" t="s">
+      <c r="T25" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="U25" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="V25" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="W25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="X25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA25" s="42" t="s">
+      <c r="V25" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="W25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="X25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA25" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="AB25" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG25" s="42" t="s">
+      <c r="AB25" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG25" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="AH25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM25" s="42" t="s">
+      <c r="AH25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM25" s="41" t="s">
         <v>112</v>
       </c>
     </row>
@@ -8380,7 +8587,7 @@
       </c>
     </row>
     <row r="27" spans="1:42" s="30" customFormat="1">
-      <c r="A27" s="42">
+      <c r="A27" s="41">
         <v>8</v>
       </c>
       <c r="B27" s="16">
@@ -8395,46 +8602,46 @@
       <c r="E27" s="27">
         <v>10</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="42" t="s">
+      <c r="G27" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="I27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="42" t="s">
+      <c r="I27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="M27" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N27" s="42" t="s">
+      <c r="M27" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N27" s="41" t="s">
         <v>125</v>
       </c>
-      <c r="O27" s="42" t="s">
+      <c r="O27" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P27" s="42" t="s">
+      <c r="P27" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="Q27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="R27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S27" s="42" t="s">
+      <c r="Q27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S27" s="41" t="s">
         <v>69</v>
       </c>
       <c r="T27" s="5" t="s">
@@ -8476,28 +8683,28 @@
       <c r="AF27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AG27" s="42" t="s">
+      <c r="AG27" s="41" t="s">
         <v>129</v>
       </c>
-      <c r="AH27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM27" s="42"/>
-      <c r="AN27" s="42"/>
-      <c r="AO27" s="42"/>
-      <c r="AP27" s="42"/>
+      <c r="AH27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM27" s="41"/>
+      <c r="AN27" s="41"/>
+      <c r="AO27" s="41"/>
+      <c r="AP27" s="41"/>
     </row>
     <row r="28" spans="1:42" s="5" customFormat="1">
       <c r="A28" s="5">
@@ -8557,43 +8764,43 @@
       <c r="S28" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="T28" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U28" s="42" t="s">
+      <c r="T28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U28" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="V28" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W28" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="X28" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y28" s="42" t="s">
+      <c r="V28" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="X28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y28" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="Z28" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA28" s="42" t="s">
+      <c r="Z28" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA28" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="AB28" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC28" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD28" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE28" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF28" s="42" t="s">
+      <c r="AB28" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF28" s="41" t="s">
         <v>69</v>
       </c>
       <c r="AG28" s="5" t="s">
@@ -8831,10 +9038,10 @@
       <c r="AG30" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AH30" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI30" s="42" t="s">
+      <c r="AH30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI30" s="41" t="s">
         <v>69</v>
       </c>
       <c r="AJ30" s="5" t="s">
@@ -8843,7 +9050,7 @@
       <c r="AK30" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="AL30" s="42" t="s">
+      <c r="AL30" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -8860,7 +9067,7 @@
       <c r="D31" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="41" t="s">
         <v>153</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -8947,19 +9154,19 @@
       <c r="AG31" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AH31" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI31" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ31" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK31" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL31" s="42" t="s">
+      <c r="AH31" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI31" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ31" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK31" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL31" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9063,19 +9270,19 @@
       <c r="AG32" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="AH32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL32" s="42" t="s">
+      <c r="AH32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL32" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9179,19 +9386,19 @@
       <c r="AG33" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="AH33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL33" s="42" t="s">
+      <c r="AH33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL33" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9295,19 +9502,19 @@
       <c r="AG34" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="AH34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL34" s="42" t="s">
+      <c r="AH34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL34" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9411,19 +9618,19 @@
       <c r="AG35" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AH35" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI35" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ35" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK35" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL35" s="42" t="s">
+      <c r="AH35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL35" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9527,19 +9734,19 @@
       <c r="AG36" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="AH36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL36" s="42" t="s">
+      <c r="AH36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL36" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9649,10 +9856,10 @@
       <c r="AI37" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AJ37" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK37" s="42" t="s">
+      <c r="AJ37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK37" s="41" t="s">
         <v>69</v>
       </c>
       <c r="AL37" s="5" t="s">
@@ -9759,10 +9966,10 @@
       <c r="AG38" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="AH38" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI38" s="42" t="s">
+      <c r="AH38" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI38" s="41" t="s">
         <v>69</v>
       </c>
       <c r="AJ38" s="5" t="s">
@@ -9771,7 +9978,7 @@
       <c r="AK38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AL38" s="42" t="s">
+      <c r="AL38" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -9791,8 +9998,8 @@
       <c r="E39" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>92</v>
+      <c r="F39" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>76</v>
@@ -9809,8 +10016,8 @@
       <c r="K39" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="L39" s="32" t="s">
-        <v>105</v>
+      <c r="L39" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="M39" s="32" t="s">
         <v>76</v>
@@ -9881,10 +10088,10 @@
       <c r="AI39" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AJ39" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK39" s="42" t="s">
+      <c r="AJ39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK39" s="41" t="s">
         <v>69</v>
       </c>
       <c r="AL39" s="5" t="s">
@@ -9910,8 +10117,8 @@
       <c r="E40" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="32" t="s">
-        <v>92</v>
+      <c r="F40" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="G40" s="32" t="s">
         <v>76</v>
@@ -9928,8 +10135,8 @@
       <c r="K40" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="L40" s="32" t="s">
-        <v>105</v>
+      <c r="L40" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="M40" s="32" t="s">
         <v>76</v>
@@ -9975,8 +10182,8 @@
       <c r="E41" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="32" t="s">
-        <v>92</v>
+      <c r="F41" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="G41" s="32" t="s">
         <v>76</v>
@@ -9993,8 +10200,8 @@
       <c r="K41" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="L41" s="32" t="s">
-        <v>105</v>
+      <c r="L41" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="M41" s="32" t="s">
         <v>76</v>
@@ -10005,10 +10212,10 @@
       <c r="O41" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="AH41" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI41" s="42" t="s">
+      <c r="AH41" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI41" s="41" t="s">
         <v>69</v>
       </c>
       <c r="AJ41" s="5" t="s">
@@ -10017,7 +10224,7 @@
       <c r="AK41" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AL41" s="42" t="s">
+      <c r="AL41" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10037,8 +10244,8 @@
       <c r="E42" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="32" t="s">
-        <v>92</v>
+      <c r="F42" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="G42" s="32" t="s">
         <v>76</v>
@@ -10055,8 +10262,8 @@
       <c r="K42" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="L42" s="32" t="s">
-        <v>105</v>
+      <c r="L42" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="M42" s="32" t="s">
         <v>76</v>
@@ -10067,19 +10274,19 @@
       <c r="O42" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="AH42" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI42" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ42" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK42" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL42" s="42" t="s">
+      <c r="AH42" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI42" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ42" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK42" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL42" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10093,14 +10300,14 @@
       <c r="C43" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="41" t="s">
         <v>69</v>
       </c>
       <c r="E43" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="32" t="s">
-        <v>92</v>
+      <c r="F43" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="G43" s="32" t="s">
         <v>76</v>
@@ -10117,8 +10324,8 @@
       <c r="K43" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="L43" s="32" t="s">
-        <v>105</v>
+      <c r="L43" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="M43" s="32" t="s">
         <v>76</v>
@@ -10129,19 +10336,19 @@
       <c r="O43" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="AH43" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI43" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ43" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK43" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL43" s="42" t="s">
+      <c r="AH43" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI43" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ43" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK43" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL43" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10155,14 +10362,14 @@
       <c r="C44" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="41" t="s">
         <v>69</v>
       </c>
       <c r="E44" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="32" t="s">
-        <v>92</v>
+      <c r="F44" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="G44" s="32" t="s">
         <v>76</v>
@@ -10179,8 +10386,8 @@
       <c r="K44" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="L44" s="32" t="s">
-        <v>105</v>
+      <c r="L44" s="51" t="s">
+        <v>69</v>
       </c>
       <c r="M44" s="32" t="s">
         <v>76</v>
@@ -10191,19 +10398,19 @@
       <c r="O44" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="AH44" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI44" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ44" s="42" t="s">
+      <c r="AH44" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI44" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ44" s="41" t="s">
         <v>69</v>
       </c>
       <c r="AK44" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AL44" s="42" t="s">
+      <c r="AL44" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10217,25 +10424,25 @@
       <c r="C45" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D45" s="41" t="s">
         <v>215</v>
       </c>
       <c r="E45" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AH45" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI45" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ45" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK45" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL45" s="42" t="s">
+      <c r="AH45" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI45" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ45" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK45" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL45" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10249,25 +10456,25 @@
       <c r="C46" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="41" t="s">
         <v>69</v>
       </c>
       <c r="E46" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="AH46" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI46" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ46" s="42" t="s">
+      <c r="AH46" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI46" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ46" s="41" t="s">
         <v>69</v>
       </c>
       <c r="AK46" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AL46" s="42" t="s">
+      <c r="AL46" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10281,25 +10488,25 @@
       <c r="C47" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="41" t="s">
         <v>69</v>
       </c>
       <c r="E47" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="AH47" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI47" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ47" s="42" t="s">
+      <c r="AH47" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI47" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ47" s="41" t="s">
         <v>69</v>
       </c>
       <c r="AK47" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AL47" s="42" t="s">
+      <c r="AL47" s="41" t="s">
         <v>69</v>
       </c>
     </row>
@@ -10313,7 +10520,7 @@
       <c r="C48" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="41" t="s">
         <v>69</v>
       </c>
       <c r="E48" s="39" t="s">
@@ -10325,10 +10532,10 @@
       <c r="AI48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AJ48" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK48" s="42" t="s">
+      <c r="AJ48" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK48" s="41" t="s">
         <v>69</v>
       </c>
       <c r="AL48" s="5" t="s">
@@ -10345,7 +10552,7 @@
       <c r="C49" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="42" t="s">
         <v>69</v>
       </c>
       <c r="E49" s="29" t="s">
@@ -10370,7 +10577,7 @@
     <row r="50" spans="1:38">
       <c r="AH50" s="5"/>
       <c r="AI50" s="5"/>
-      <c r="AJ50" s="42"/>
+      <c r="AJ50" s="41"/>
     </row>
     <row r="51" spans="1:38">
       <c r="E51" s="17"/>
@@ -10387,6 +10594,7 @@
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10394,8 +10602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132F5F0A-9869-7B45-B0A1-08F1A9D529EC}">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22:O23"/>
+    <sheetView topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -10639,12 +10847,12 @@
       <c r="AH17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
@@ -10898,8 +11106,8 @@
       <c r="K20" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="16" t="s">
-        <v>69</v>
+      <c r="L20" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>69</v>
@@ -11082,8 +11290,8 @@
       <c r="E22">
         <v>3.8</v>
       </c>
-      <c r="F22" t="s">
-        <v>69</v>
+      <c r="F22" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>69</v>
@@ -11100,8 +11308,8 @@
       <c r="K22" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="16" t="s">
-        <v>69</v>
+      <c r="L22" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="M22" s="16" t="s">
         <v>69</v>
@@ -11109,7 +11317,7 @@
       <c r="N22" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="O22" s="48" t="s">
+      <c r="O22" s="47" t="s">
         <v>2118</v>
       </c>
       <c r="P22" s="16" t="s">
@@ -11183,8 +11391,8 @@
       <c r="E23" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>69</v>
+      <c r="F23" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>69</v>
@@ -11201,8 +11409,8 @@
       <c r="K23" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="16" t="s">
-        <v>69</v>
+      <c r="L23" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="M23" s="16" t="s">
         <v>69</v>
@@ -11210,7 +11418,7 @@
       <c r="N23" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="O23" s="48" t="s">
+      <c r="O23" s="47" t="s">
         <v>2118</v>
       </c>
       <c r="P23" s="16" t="s">
@@ -11302,8 +11510,8 @@
       <c r="K24" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="16" t="s">
-        <v>69</v>
+      <c r="L24" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="M24" s="16" t="s">
         <v>69</v>
@@ -13713,7 +13921,7 @@
       <c r="E48">
         <v>11.5</v>
       </c>
-      <c r="O48" s="49"/>
+      <c r="O48" s="48"/>
       <c r="AH48" s="38" t="s">
         <v>1013</v>
       </c>
@@ -13751,8 +13959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1941DE63-EF4F-1444-AD9C-54AF141A3D69}">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -13908,7 +14116,7 @@
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="41" t="s">
         <v>1336</v>
       </c>
       <c r="D11" s="5"/>
@@ -13920,7 +14128,7 @@
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>1337</v>
       </c>
       <c r="D12" s="5"/>
@@ -13994,12 +14202,12 @@
       <c r="AH17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
@@ -14235,8 +14443,8 @@
       <c r="E20" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F20" t="s">
-        <v>69</v>
+      <c r="F20" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="G20" t="s">
         <v>69</v>
@@ -16361,7 +16569,7 @@
       <c r="E41" t="s">
         <v>69</v>
       </c>
-      <c r="O41" s="49"/>
+      <c r="O41" s="48"/>
       <c r="AH41" t="s">
         <v>435</v>
       </c>
@@ -16518,8 +16726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B55AA0-F1D2-074A-89B1-05A4346EE93D}">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -16763,12 +16971,12 @@
       <c r="AH17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
@@ -17028,8 +17236,8 @@
       <c r="K20" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="16" t="s">
-        <v>69</v>
+      <c r="L20" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>69</v>
@@ -19198,34 +19406,34 @@
       <c r="E41" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="44" t="s">
+      <c r="F41" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G41" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="44" t="s">
+      <c r="G41" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="43" t="s">
         <v>408</v>
       </c>
-      <c r="I41" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J41" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="K41" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="L41" s="44" t="s">
+      <c r="I41" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="M41" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="N41" s="44" t="s">
+      <c r="M41" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="N41" s="43" t="s">
         <v>815</v>
       </c>
-      <c r="O41" s="44" t="s">
+      <c r="O41" s="43" t="s">
         <v>363</v>
       </c>
       <c r="P41" s="38" t="s">
@@ -19266,34 +19474,34 @@
       <c r="E42">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F42" s="44" t="s">
+      <c r="F42" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G42" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="44" t="s">
+      <c r="G42" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="43" t="s">
         <v>721</v>
       </c>
-      <c r="I42" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J42" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="K42" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="L42" s="44" t="s">
+      <c r="I42" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J42" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="K42" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L42" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="M42" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="N42" s="44" t="s">
+      <c r="M42" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="N42" s="43" t="s">
         <v>982</v>
       </c>
-      <c r="O42" s="44" t="s">
+      <c r="O42" s="43" t="s">
         <v>363</v>
       </c>
       <c r="AH42" t="s">
@@ -19316,34 +19524,34 @@
       <c r="E43" t="s">
         <v>69</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G43" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="44" t="s">
+      <c r="G43" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H43" s="43" t="s">
         <v>939</v>
       </c>
-      <c r="I43" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J43" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="K43" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="L43" s="44" t="s">
+      <c r="I43" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="K43" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="M43" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="N43" s="44" t="s">
+      <c r="M43" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="N43" s="43" t="s">
         <v>538</v>
       </c>
-      <c r="O43" s="44" t="s">
+      <c r="O43" s="43" t="s">
         <v>363</v>
       </c>
       <c r="AH43" t="s">
@@ -19366,34 +19574,34 @@
       <c r="E44" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="44" t="s">
+      <c r="F44" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G44" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H44" s="44" t="s">
+      <c r="G44" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="43" t="s">
         <v>1556</v>
       </c>
-      <c r="I44" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J44" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="K44" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="L44" s="44" t="s">
+      <c r="I44" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J44" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L44" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="M44" s="44" t="s">
+      <c r="M44" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="N44" s="44" t="s">
+      <c r="N44" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="O44" s="44" t="s">
+      <c r="O44" s="43" t="s">
         <v>363</v>
       </c>
       <c r="AH44" t="s">
@@ -19416,34 +19624,34 @@
       <c r="E45">
         <v>8.6999999999999993</v>
       </c>
-      <c r="F45" s="44" t="s">
+      <c r="F45" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G45" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H45" s="44" t="s">
+      <c r="G45" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="43" t="s">
         <v>1558</v>
       </c>
-      <c r="I45" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J45" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="K45" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="L45" s="44" t="s">
+      <c r="I45" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J45" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="K45" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L45" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="M45" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="N45" s="44" t="s">
+      <c r="M45" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="N45" s="43" t="s">
         <v>1032</v>
       </c>
-      <c r="O45" s="44" t="s">
+      <c r="O45" s="43" t="s">
         <v>363</v>
       </c>
       <c r="AH45" t="s">
@@ -19466,34 +19674,34 @@
       <c r="E46" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="44" t="s">
+      <c r="F46" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G46" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H46" s="44" t="s">
+      <c r="G46" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="43" t="s">
         <v>321</v>
       </c>
-      <c r="I46" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J46" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="K46" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="L46" s="44" t="s">
+      <c r="I46" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J46" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="K46" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L46" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="M46" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="N46" s="44" t="s">
+      <c r="M46" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="N46" s="43" t="s">
         <v>982</v>
       </c>
-      <c r="O46" s="44" t="s">
+      <c r="O46" s="43" t="s">
         <v>363</v>
       </c>
       <c r="AH46" t="s">
@@ -19516,34 +19724,34 @@
       <c r="E47" t="s">
         <v>69</v>
       </c>
-      <c r="F47" s="44" t="s">
+      <c r="F47" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G47" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H47" s="44" t="s">
+      <c r="G47" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H47" s="43" t="s">
         <v>298</v>
       </c>
-      <c r="I47" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J47" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="K47" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="L47" s="44" t="s">
+      <c r="I47" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="K47" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L47" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="M47" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="N47" s="44" t="s">
+      <c r="M47" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="N47" s="43" t="s">
         <v>935</v>
       </c>
-      <c r="O47" s="44" t="s">
+      <c r="O47" s="43" t="s">
         <v>363</v>
       </c>
       <c r="AH47" t="s">
@@ -19566,34 +19774,34 @@
       <c r="E48">
         <v>10.8</v>
       </c>
-      <c r="F48" s="44" t="s">
+      <c r="F48" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G48" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H48" s="44" t="s">
+      <c r="G48" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48" s="43" t="s">
         <v>521</v>
       </c>
-      <c r="I48" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="J48" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="K48" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="L48" s="44" t="s">
+      <c r="I48" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="J48" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="K48" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" s="43" t="s">
         <v>1560</v>
       </c>
-      <c r="M48" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="N48" s="44" t="s">
+      <c r="M48" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="N48" s="43" t="s">
         <v>815</v>
       </c>
-      <c r="O48" s="44" t="s">
+      <c r="O48" s="43" t="s">
         <v>363</v>
       </c>
       <c r="AH48" t="s">
@@ -19647,8 +19855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAE2CA4-4D4E-654D-8179-8B36EF925B47}">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView topLeftCell="F36" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -19892,12 +20100,12 @@
       <c r="AH17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
@@ -20133,8 +20341,8 @@
       <c r="E20" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>69</v>
+      <c r="F20" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>69</v>
@@ -20160,8 +20368,8 @@
       <c r="N20" s="16" t="s">
         <v>764</v>
       </c>
-      <c r="O20" s="16" t="s">
-        <v>69</v>
+      <c r="O20" s="47" t="s">
+        <v>75</v>
       </c>
       <c r="P20" s="16" t="s">
         <v>69</v>
@@ -22455,8 +22663,8 @@
       <c r="I43" s="38"/>
       <c r="J43" s="38"/>
       <c r="K43" s="38"/>
-      <c r="L43" s="44"/>
-      <c r="M43" s="44"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
       <c r="N43" s="33"/>
       <c r="U43" s="38"/>
       <c r="V43" s="38"/>
@@ -22567,8 +22775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40FE8AB6-F5C1-7340-A638-4633F20C689C}">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -22667,7 +22875,7 @@
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="44">
         <v>43117</v>
       </c>
       <c r="D6" s="9"/>
@@ -22679,7 +22887,7 @@
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="41" t="s">
         <v>1686</v>
       </c>
       <c r="D7" s="5"/>
@@ -22703,7 +22911,7 @@
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="5"/>
@@ -22727,7 +22935,7 @@
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="41" t="s">
         <v>1687</v>
       </c>
       <c r="D11" s="5"/>
@@ -22739,7 +22947,7 @@
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>1337</v>
       </c>
       <c r="D12" s="5"/>
@@ -22813,12 +23021,12 @@
       <c r="AH17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
@@ -23176,8 +23384,8 @@
       <c r="K21" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="38" t="s">
-        <v>69</v>
+      <c r="L21" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="M21" s="38" t="s">
         <v>69</v>
@@ -23678,11 +23886,11 @@
       <c r="D26" s="39" t="s">
         <v>1722</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="41" t="s">
         <v>1723</v>
       </c>
-      <c r="F26" s="38" t="s">
-        <v>69</v>
+      <c r="F26" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="G26" s="38" t="s">
         <v>69</v>
@@ -23699,8 +23907,8 @@
       <c r="K26" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L26" s="38" t="s">
-        <v>69</v>
+      <c r="L26" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="M26" s="38" t="s">
         <v>69</v>
@@ -23708,7 +23916,7 @@
       <c r="N26" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="O26" s="50" t="s">
+      <c r="O26" s="49" t="s">
         <v>2118</v>
       </c>
       <c r="P26" s="38" t="s">
@@ -23785,8 +23993,8 @@
       <c r="E27" s="27" t="s">
         <v>1732</v>
       </c>
-      <c r="F27" s="38" t="s">
-        <v>69</v>
+      <c r="F27" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="G27" s="38" t="s">
         <v>69</v>
@@ -23803,8 +24011,8 @@
       <c r="K27" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="38" t="s">
-        <v>69</v>
+      <c r="L27" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="M27" s="38" t="s">
         <v>69</v>
@@ -23812,7 +24020,7 @@
       <c r="N27" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="O27" s="50" t="s">
+      <c r="O27" s="49" t="s">
         <v>2118</v>
       </c>
       <c r="P27" s="38" t="s">
@@ -23911,8 +24119,8 @@
       <c r="K28" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="38" t="s">
-        <v>69</v>
+      <c r="L28" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="M28" s="38" t="s">
         <v>69</v>
@@ -23994,11 +24202,11 @@
       <c r="D29" s="39" t="s">
         <v>1745</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="41" t="s">
         <v>1746</v>
       </c>
-      <c r="F29" s="38" t="s">
-        <v>69</v>
+      <c r="F29" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>69</v>
@@ -24098,7 +24306,7 @@
       <c r="D30" s="39" t="s">
         <v>1754</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="41" t="s">
         <v>1755</v>
       </c>
       <c r="F30" s="38" t="s">
@@ -24309,8 +24517,8 @@
       <c r="E32" s="5">
         <v>20.8</v>
       </c>
-      <c r="F32" s="38" t="s">
-        <v>69</v>
+      <c r="F32" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="G32" s="38" t="s">
         <v>69</v>
@@ -24327,8 +24535,8 @@
       <c r="K32" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L32" s="38" t="s">
-        <v>69</v>
+      <c r="L32" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="M32" s="38" t="s">
         <v>69</v>
@@ -24336,7 +24544,7 @@
       <c r="N32" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="O32" s="50" t="s">
+      <c r="O32" s="49" t="s">
         <v>2118</v>
       </c>
       <c r="P32" s="38" t="s">
@@ -24410,7 +24618,7 @@
       <c r="D33" s="39" t="s">
         <v>1778</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="41" t="s">
         <v>1779</v>
       </c>
       <c r="F33" s="38" t="s">
@@ -25159,8 +25367,8 @@
       <c r="K40" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L40" s="38" t="s">
-        <v>69</v>
+      <c r="L40" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="M40" s="38" t="s">
         <v>69</v>
@@ -25263,8 +25471,8 @@
       <c r="K41" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L41" s="38" t="s">
-        <v>69</v>
+      <c r="L41" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="M41" s="38" t="s">
         <v>69</v>
@@ -25447,7 +25655,7 @@
       <c r="C43" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="42" t="s">
+      <c r="D43" s="41" t="s">
         <v>1048</v>
       </c>
       <c r="E43" s="5">
@@ -25551,7 +25759,7 @@
       <c r="C44" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="D44" s="41" t="s">
         <v>1198</v>
       </c>
       <c r="E44" s="5">
@@ -25652,10 +25860,10 @@
       <c r="B45" s="34">
         <v>43143</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="46" t="s">
         <v>1855</v>
       </c>
       <c r="E45" s="32">
@@ -25745,7 +25953,7 @@
       <c r="AG45" s="33" t="s">
         <v>1859</v>
       </c>
-      <c r="AH45" s="44" t="s">
+      <c r="AH45" s="43" t="s">
         <v>69</v>
       </c>
       <c r="AK45" s="33" t="s">
@@ -25762,14 +25970,14 @@
       <c r="C46" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="41" t="s">
         <v>1516</v>
       </c>
       <c r="E46" s="5">
         <v>13.9</v>
       </c>
-      <c r="F46" s="38" t="s">
-        <v>69</v>
+      <c r="F46" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="G46" s="38" t="s">
         <v>69</v>
@@ -25786,8 +25994,8 @@
       <c r="K46" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L46" s="38" t="s">
-        <v>69</v>
+      <c r="L46" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="M46" s="38" t="s">
         <v>69</v>
@@ -25795,8 +26003,8 @@
       <c r="N46" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="O46" s="38" t="s">
-        <v>69</v>
+      <c r="O46" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="P46" s="38" t="s">
         <v>85</v>
@@ -25866,7 +26074,7 @@
       <c r="C47" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="D47" s="42" t="s">
+      <c r="D47" s="41" t="s">
         <v>277</v>
       </c>
       <c r="E47" s="5">
@@ -25890,8 +26098,8 @@
       <c r="K47" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L47" s="38" t="s">
-        <v>69</v>
+      <c r="L47" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="M47" s="38" t="s">
         <v>69</v>
@@ -25970,7 +26178,7 @@
       <c r="C48" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D48" s="42" t="s">
+      <c r="D48" s="41" t="s">
         <v>728</v>
       </c>
       <c r="E48" s="5">
@@ -25994,8 +26202,8 @@
       <c r="K48" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L48" s="38" t="s">
-        <v>69</v>
+      <c r="L48" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="M48" s="38" t="s">
         <v>69</v>
@@ -26074,10 +26282,10 @@
       <c r="C49" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="42" t="s">
         <v>1871</v>
       </c>
-      <c r="E49" s="43" t="s">
+      <c r="E49" s="42" t="s">
         <v>1872</v>
       </c>
       <c r="F49" s="22" t="s">
@@ -26098,7 +26306,7 @@
       <c r="K49" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="L49" s="22" t="s">
+      <c r="L49" s="40" t="s">
         <v>69</v>
       </c>
       <c r="M49" s="22" t="s">
@@ -26184,8 +26392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B63938D-66C4-FC45-AD24-325C77584C5C}">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -26319,7 +26527,7 @@
       <c r="B9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="41" t="s">
         <v>1875</v>
       </c>
       <c r="D9" s="5"/>
@@ -26343,7 +26551,7 @@
       <c r="B11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="41" t="s">
         <v>1875</v>
       </c>
       <c r="D11" s="5"/>
@@ -26355,7 +26563,7 @@
       <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>620</v>
       </c>
       <c r="D12" s="5"/>
@@ -26429,12 +26637,12 @@
       <c r="AH17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
@@ -26563,91 +26771,91 @@
       <c r="D19" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="M19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="N19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="O19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="P19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="R19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="V19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="W19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="X19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF19" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG19" s="42" t="s">
+      <c r="E19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="M19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="O19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="V19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="W19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="X19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF19" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG19" s="41" t="s">
         <v>623</v>
       </c>
       <c r="AH19" s="5"/>
@@ -26666,91 +26874,91 @@
       <c r="D20" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="N20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="O20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="P20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="R20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S20" s="42" t="s">
+      <c r="E20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S20" s="41" t="s">
         <v>1877</v>
       </c>
-      <c r="T20" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="U20" s="42" t="s">
+      <c r="T20" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="U20" s="41" t="s">
         <v>1878</v>
       </c>
-      <c r="V20" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="W20" s="42" t="s">
+      <c r="V20" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="W20" s="41" t="s">
         <v>1879</v>
       </c>
-      <c r="X20" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA20" s="42" t="s">
+      <c r="X20" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA20" s="41" t="s">
         <v>1880</v>
       </c>
-      <c r="AB20" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF20" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG20" s="42" t="s">
+      <c r="AB20" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF20" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG20" s="41" t="s">
         <v>623</v>
       </c>
       <c r="AH20" s="5"/>
@@ -26769,91 +26977,91 @@
       <c r="D21" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="G21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="M21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="N21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="O21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="P21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="R21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S21" s="42" t="s">
+      <c r="E21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="M21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="N21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S21" s="41" t="s">
         <v>1881</v>
       </c>
-      <c r="T21" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="U21" s="42" t="s">
+      <c r="T21" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="U21" s="41" t="s">
         <v>1882</v>
       </c>
-      <c r="V21" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="W21" s="42" t="s">
+      <c r="V21" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="W21" s="41" t="s">
         <v>1883</v>
       </c>
-      <c r="X21" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA21" s="42" t="s">
+      <c r="X21" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA21" s="41" t="s">
         <v>1884</v>
       </c>
-      <c r="AB21" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF21" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG21" s="42" t="s">
+      <c r="AB21" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF21" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG21" s="41" t="s">
         <v>623</v>
       </c>
       <c r="AH21" s="5"/>
@@ -26872,91 +27080,91 @@
       <c r="D22" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="M22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="N22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="O22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="P22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="R22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S22" s="42" t="s">
+      <c r="E22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="M22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="N22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="O22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S22" s="41" t="s">
         <v>1885</v>
       </c>
-      <c r="T22" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="U22" s="42" t="s">
+      <c r="T22" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="U22" s="41" t="s">
         <v>1886</v>
       </c>
-      <c r="V22" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="W22" s="42" t="s">
+      <c r="V22" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="W22" s="41" t="s">
         <v>1887</v>
       </c>
-      <c r="X22" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA22" s="42" t="s">
+      <c r="X22" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA22" s="41" t="s">
         <v>1888</v>
       </c>
-      <c r="AB22" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF22" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG22" s="42" t="s">
+      <c r="AB22" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF22" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG22" s="41" t="s">
         <v>1889</v>
       </c>
       <c r="AH22" s="5"/>
@@ -26975,91 +27183,91 @@
       <c r="D23" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="M23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="N23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="O23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="P23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="R23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S23" s="42" t="s">
+      <c r="E23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="M23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="N23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="O23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S23" s="41" t="s">
         <v>1890</v>
       </c>
-      <c r="T23" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="U23" s="42" t="s">
+      <c r="T23" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="U23" s="41" t="s">
         <v>1891</v>
       </c>
-      <c r="V23" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="W23" s="42" t="s">
+      <c r="V23" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="W23" s="41" t="s">
         <v>1892</v>
       </c>
-      <c r="X23" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA23" s="42" t="s">
+      <c r="X23" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA23" s="41" t="s">
         <v>1893</v>
       </c>
-      <c r="AB23" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF23" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG23" s="42" t="s">
+      <c r="AB23" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF23" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG23" s="41" t="s">
         <v>1894</v>
       </c>
       <c r="AH23" s="5"/>
@@ -27078,91 +27286,91 @@
       <c r="D24" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="42" t="s">
+      <c r="E24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="42" t="s">
+      <c r="G24" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="41" t="s">
         <v>1895</v>
       </c>
-      <c r="I24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L24" s="42" t="s">
+      <c r="I24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="M24" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N24" s="42" t="s">
+      <c r="M24" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N24" s="41" t="s">
         <v>1896</v>
       </c>
-      <c r="O24" s="42" t="s">
+      <c r="O24" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="P24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="R24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S24" s="42" t="s">
+      <c r="P24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S24" s="41" t="s">
         <v>1897</v>
       </c>
-      <c r="T24" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="U24" s="42" t="s">
+      <c r="T24" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="U24" s="41" t="s">
         <v>1898</v>
       </c>
-      <c r="V24" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W24" s="42" t="s">
+      <c r="V24" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W24" s="41" t="s">
         <v>1899</v>
       </c>
-      <c r="X24" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA24" s="42" t="s">
+      <c r="X24" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA24" s="41" t="s">
         <v>1900</v>
       </c>
-      <c r="AB24" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC24" s="42" t="s">
+      <c r="AB24" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC24" s="41" t="s">
         <v>1901</v>
       </c>
-      <c r="AD24" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG24" s="42" t="s">
+      <c r="AD24" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF24" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG24" s="41" t="s">
         <v>1902</v>
       </c>
       <c r="AH24" s="5"/>
@@ -27184,88 +27392,88 @@
       <c r="E25" s="5">
         <v>7.7</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="G25" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="42" t="s">
+      <c r="G25" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="41" t="s">
         <v>1903</v>
       </c>
-      <c r="I25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L25" s="42" t="s">
+      <c r="I25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="M25" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N25" s="42" t="s">
+      <c r="M25" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N25" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="O25" s="42" t="s">
+      <c r="O25" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="P25" s="42" t="s">
+      <c r="P25" s="41" t="s">
         <v>85</v>
       </c>
       <c r="Q25" s="5">
         <v>0.3</v>
       </c>
-      <c r="R25" s="42" t="s">
+      <c r="R25" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="S25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U25" s="42" t="s">
+      <c r="S25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U25" s="41" t="s">
         <v>1904</v>
       </c>
-      <c r="V25" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W25" s="42" t="s">
+      <c r="V25" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W25" s="41" t="s">
         <v>1905</v>
       </c>
-      <c r="X25" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y25" s="42" t="s">
+      <c r="X25" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y25" s="41" t="s">
         <v>1906</v>
       </c>
-      <c r="Z25" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA25" s="42" t="s">
+      <c r="Z25" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA25" s="41" t="s">
         <v>1907</v>
       </c>
-      <c r="AB25" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF25" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG25" s="42" t="s">
+      <c r="AB25" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF25" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG25" s="41" t="s">
         <v>1908</v>
       </c>
       <c r="AH25" s="5"/>
@@ -27284,91 +27492,91 @@
       <c r="D26" s="39" t="s">
         <v>1909</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="41" t="s">
         <v>1910</v>
       </c>
-      <c r="F26" s="42" t="s">
+      <c r="F26" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="G26" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H26" s="42" t="s">
+      <c r="G26" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="I26" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J26" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="42" t="s">
+      <c r="I26" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J26" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="M26" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N26" s="42" t="s">
+      <c r="M26" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N26" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="O26" s="42" t="s">
+      <c r="O26" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="P26" s="42" t="s">
+      <c r="P26" s="41" t="s">
         <v>1725</v>
       </c>
-      <c r="Q26" s="42" t="s">
+      <c r="Q26" s="41" t="s">
         <v>1911</v>
       </c>
-      <c r="R26" s="42" t="s">
+      <c r="R26" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="S26" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T26" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U26" s="42" t="s">
+      <c r="S26" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T26" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U26" s="41" t="s">
         <v>1912</v>
       </c>
-      <c r="V26" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W26" s="42" t="s">
+      <c r="V26" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W26" s="41" t="s">
         <v>1913</v>
       </c>
-      <c r="X26" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y26" s="42" t="s">
+      <c r="X26" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y26" s="41" t="s">
         <v>1914</v>
       </c>
-      <c r="Z26" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA26" s="42" t="s">
+      <c r="Z26" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA26" s="41" t="s">
         <v>1915</v>
       </c>
-      <c r="AB26" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC26" s="42" t="s">
+      <c r="AB26" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC26" s="41" t="s">
         <v>1916</v>
       </c>
-      <c r="AD26" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE26" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF26" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG26" s="42" t="s">
+      <c r="AD26" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE26" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF26" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG26" s="41" t="s">
         <v>1908</v>
       </c>
       <c r="AH26" s="5"/>
@@ -27390,92 +27598,92 @@
       <c r="E27" s="27" t="s">
         <v>1918</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="G27" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="42" t="s">
+      <c r="G27" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="41" t="s">
         <v>588</v>
       </c>
-      <c r="I27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="42" t="s">
+      <c r="I27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="M27" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N27" s="42" t="s">
+      <c r="M27" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N27" s="41" t="s">
         <v>1816</v>
       </c>
-      <c r="O27" s="42" t="s">
+      <c r="O27" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="P27" s="42" t="s">
+      <c r="P27" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="Q27" s="42" t="s">
+      <c r="Q27" s="41" t="s">
         <v>1919</v>
       </c>
-      <c r="R27" s="42" t="s">
+      <c r="R27" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="S27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U27" s="42" t="s">
+      <c r="S27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U27" s="41" t="s">
         <v>1920</v>
       </c>
-      <c r="V27" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W27" s="42" t="s">
+      <c r="V27" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W27" s="41" t="s">
         <v>1921</v>
       </c>
-      <c r="X27" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y27" s="42" t="s">
+      <c r="X27" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y27" s="41" t="s">
         <v>1922</v>
       </c>
-      <c r="Z27" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA27" s="42" t="s">
+      <c r="Z27" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA27" s="41" t="s">
         <v>1923</v>
       </c>
-      <c r="AB27" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG27" s="42" t="s">
+      <c r="AB27" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG27" s="41" t="s">
         <v>1924</v>
       </c>
-      <c r="AH27" s="42"/>
-      <c r="AI27" s="42"/>
+      <c r="AH27" s="41"/>
+      <c r="AI27" s="41"/>
       <c r="AJ27" s="38"/>
       <c r="AK27" s="38"/>
       <c r="AL27" s="38"/>
@@ -27496,88 +27704,88 @@
       <c r="E28" s="5">
         <v>5.7</v>
       </c>
-      <c r="F28" s="42" t="s">
+      <c r="F28" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="G28" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H28" s="42" t="s">
+      <c r="G28" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="I28" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J28" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K28" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L28" s="42" t="s">
+      <c r="I28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L28" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M28" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N28" s="42" t="s">
+      <c r="M28" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N28" s="41" t="s">
         <v>808</v>
       </c>
-      <c r="O28" s="42" t="s">
+      <c r="O28" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P28" s="42" t="s">
+      <c r="P28" s="41" t="s">
         <v>85</v>
       </c>
       <c r="Q28" s="5">
         <v>2.2999999999999998</v>
       </c>
-      <c r="R28" s="42" t="s">
+      <c r="R28" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="S28" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T28" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U28" s="42" t="s">
+      <c r="S28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U28" s="41" t="s">
         <v>1925</v>
       </c>
-      <c r="V28" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W28" s="42" t="s">
+      <c r="V28" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W28" s="41" t="s">
         <v>1926</v>
       </c>
-      <c r="X28" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y28" s="42" t="s">
+      <c r="X28" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y28" s="41" t="s">
         <v>1927</v>
       </c>
-      <c r="Z28" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA28" s="42" t="s">
+      <c r="Z28" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA28" s="41" t="s">
         <v>1928</v>
       </c>
-      <c r="AB28" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC28" s="42" t="s">
+      <c r="AB28" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC28" s="41" t="s">
         <v>1929</v>
       </c>
-      <c r="AD28" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE28" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF28" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG28" s="42" t="s">
+      <c r="AD28" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF28" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG28" s="41" t="s">
         <v>1930</v>
       </c>
       <c r="AH28" s="5"/>
@@ -27599,88 +27807,88 @@
       <c r="E29" s="5">
         <v>6.5</v>
       </c>
-      <c r="F29" s="42" t="s">
+      <c r="F29" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="G29" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="42" t="s">
+      <c r="G29" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="41" t="s">
         <v>1102</v>
       </c>
-      <c r="I29" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J29" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K29" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L29" s="42" t="s">
+      <c r="I29" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K29" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N29" s="42" t="s">
+      <c r="M29" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N29" s="41" t="s">
         <v>1679</v>
       </c>
-      <c r="O29" s="42" t="s">
+      <c r="O29" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P29" s="42" t="s">
+      <c r="P29" s="41" t="s">
         <v>85</v>
       </c>
       <c r="Q29" s="5">
         <v>1.5</v>
       </c>
-      <c r="R29" s="42" t="s">
+      <c r="R29" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="S29" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T29" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U29" s="42" t="s">
+      <c r="S29" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T29" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U29" s="41" t="s">
         <v>1931</v>
       </c>
-      <c r="V29" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W29" s="42" t="s">
+      <c r="V29" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W29" s="41" t="s">
         <v>1932</v>
       </c>
-      <c r="X29" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y29" s="42" t="s">
+      <c r="X29" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y29" s="41" t="s">
         <v>1933</v>
       </c>
-      <c r="Z29" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA29" s="42" t="s">
+      <c r="Z29" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA29" s="41" t="s">
         <v>1934</v>
       </c>
-      <c r="AB29" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC29" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD29" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE29" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF29" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG29" s="42" t="s">
+      <c r="AB29" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC29" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD29" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE29" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF29" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG29" s="41" t="s">
         <v>1935</v>
       </c>
       <c r="AH29" s="5"/>
@@ -27699,91 +27907,91 @@
       <c r="D30" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="42" t="s">
+      <c r="E30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="G30" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="42" t="s">
+      <c r="G30" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="I30" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J30" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L30" s="42" t="s">
+      <c r="I30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L30" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M30" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N30" s="42" t="s">
+      <c r="M30" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N30" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="O30" s="42" t="s">
+      <c r="O30" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P30" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q30" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="R30" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S30" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T30" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U30" s="42" t="s">
+      <c r="P30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U30" s="41" t="s">
         <v>1936</v>
       </c>
-      <c r="V30" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W30" s="42" t="s">
+      <c r="V30" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W30" s="41" t="s">
         <v>1937</v>
       </c>
-      <c r="X30" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y30" s="42" t="s">
+      <c r="X30" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y30" s="41" t="s">
         <v>1938</v>
       </c>
-      <c r="Z30" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA30" s="42" t="s">
+      <c r="Z30" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA30" s="41" t="s">
         <v>1939</v>
       </c>
-      <c r="AB30" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC30" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD30" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE30" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF30" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG30" s="42" t="s">
+      <c r="AB30" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF30" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG30" s="41" t="s">
         <v>1935</v>
       </c>
       <c r="AH30" s="5"/>
@@ -27805,88 +28013,88 @@
       <c r="E31" s="5">
         <v>6.7</v>
       </c>
-      <c r="F31" s="42" t="s">
+      <c r="F31" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H31" s="42" t="s">
+      <c r="G31" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H31" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="I31" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K31" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L31" s="42" t="s">
+      <c r="I31" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K31" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M31" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N31" s="42" t="s">
+      <c r="M31" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N31" s="41" t="s">
         <v>1590</v>
       </c>
-      <c r="O31" s="42" t="s">
+      <c r="O31" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P31" s="42" t="s">
+      <c r="P31" s="41" t="s">
         <v>85</v>
       </c>
       <c r="Q31" s="5">
         <v>1.3</v>
       </c>
-      <c r="R31" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S31" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T31" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U31" s="42" t="s">
+      <c r="R31" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S31" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T31" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U31" s="41" t="s">
         <v>1940</v>
       </c>
-      <c r="V31" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W31" s="42" t="s">
+      <c r="V31" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W31" s="41" t="s">
         <v>1941</v>
       </c>
-      <c r="X31" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y31" s="42" t="s">
+      <c r="X31" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y31" s="41" t="s">
         <v>1942</v>
       </c>
-      <c r="Z31" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA31" s="42" t="s">
+      <c r="Z31" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA31" s="41" t="s">
         <v>1943</v>
       </c>
-      <c r="AB31" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC31" s="42" t="s">
+      <c r="AB31" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC31" s="41" t="s">
         <v>1944</v>
       </c>
-      <c r="AD31" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE31" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF31" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG31" s="42" t="s">
+      <c r="AD31" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE31" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF31" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG31" s="41" t="s">
         <v>1935</v>
       </c>
       <c r="AH31" s="5"/>
@@ -27905,91 +28113,91 @@
       <c r="D32" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="42" t="s">
+      <c r="E32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="G32" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H32" s="42" t="s">
+      <c r="G32" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="I32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L32" s="42" t="s">
+      <c r="I32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M32" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N32" s="42" t="s">
+      <c r="M32" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N32" s="41" t="s">
         <v>1065</v>
       </c>
-      <c r="O32" s="42" t="s">
+      <c r="O32" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="R32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U32" s="42" t="s">
+      <c r="P32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U32" s="41" t="s">
         <v>1945</v>
       </c>
-      <c r="V32" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W32" s="42" t="s">
+      <c r="V32" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W32" s="41" t="s">
         <v>1946</v>
       </c>
-      <c r="X32" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y32" s="42" t="s">
+      <c r="X32" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y32" s="41" t="s">
         <v>1947</v>
       </c>
-      <c r="Z32" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA32" s="42" t="s">
+      <c r="Z32" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA32" s="41" t="s">
         <v>1948</v>
       </c>
-      <c r="AB32" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF32" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG32" s="42" t="s">
+      <c r="AB32" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF32" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG32" s="41" t="s">
         <v>1935</v>
       </c>
       <c r="AH32" s="5"/>
@@ -28008,91 +28216,91 @@
       <c r="D33" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="42" t="s">
+      <c r="E33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="G33" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="42" t="s">
+      <c r="G33" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="41" t="s">
         <v>383</v>
       </c>
-      <c r="I33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L33" s="42" t="s">
+      <c r="I33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L33" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M33" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N33" s="42" t="s">
+      <c r="M33" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N33" s="41" t="s">
         <v>769</v>
       </c>
-      <c r="O33" s="42" t="s">
+      <c r="O33" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="R33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U33" s="42" t="s">
+      <c r="P33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U33" s="41" t="s">
         <v>1949</v>
       </c>
-      <c r="V33" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W33" s="42" t="s">
+      <c r="V33" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W33" s="41" t="s">
         <v>1950</v>
       </c>
-      <c r="X33" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y33" s="42" t="s">
+      <c r="X33" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y33" s="41" t="s">
         <v>1951</v>
       </c>
-      <c r="Z33" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA33" s="42" t="s">
+      <c r="Z33" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA33" s="41" t="s">
         <v>1952</v>
       </c>
-      <c r="AB33" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC33" s="42" t="s">
+      <c r="AB33" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC33" s="41" t="s">
         <v>1953</v>
       </c>
-      <c r="AD33" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF33" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG33" s="42" t="s">
+      <c r="AD33" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF33" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG33" s="41" t="s">
         <v>1935</v>
       </c>
       <c r="AH33" s="5"/>
@@ -28111,91 +28319,91 @@
       <c r="D34" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="42" t="s">
+      <c r="E34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="G34" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="42" t="s">
+      <c r="G34" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="41" t="s">
         <v>990</v>
       </c>
-      <c r="I34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L34" s="42" t="s">
+      <c r="I34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M34" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N34" s="42" t="s">
+      <c r="M34" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N34" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="O34" s="42" t="s">
+      <c r="O34" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="R34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U34" s="42" t="s">
+      <c r="P34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U34" s="41" t="s">
         <v>1954</v>
       </c>
-      <c r="V34" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W34" s="42" t="s">
+      <c r="V34" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W34" s="41" t="s">
         <v>1955</v>
       </c>
-      <c r="X34" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y34" s="42" t="s">
+      <c r="X34" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y34" s="41" t="s">
         <v>1956</v>
       </c>
-      <c r="Z34" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA34" s="42" t="s">
+      <c r="Z34" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA34" s="41" t="s">
         <v>1957</v>
       </c>
-      <c r="AB34" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF34" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG34" s="42" t="s">
+      <c r="AB34" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF34" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG34" s="41" t="s">
         <v>1935</v>
       </c>
       <c r="AH34" s="5"/>
@@ -28217,88 +28425,88 @@
       <c r="E35" s="5">
         <v>7.4</v>
       </c>
-      <c r="F35" s="42" t="s">
+      <c r="F35" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="G35" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H35" s="42" t="s">
+      <c r="G35" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="41" t="s">
         <v>447</v>
       </c>
-      <c r="I35" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J35" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L35" s="42" t="s">
+      <c r="I35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L35" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="M35" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N35" s="42" t="s">
+      <c r="M35" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N35" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="O35" s="42" t="s">
+      <c r="O35" s="41" t="s">
         <v>640</v>
       </c>
-      <c r="P35" s="42" t="s">
+      <c r="P35" s="41" t="s">
         <v>85</v>
       </c>
       <c r="Q35" s="5">
         <v>0.6</v>
       </c>
-      <c r="R35" s="42" t="s">
+      <c r="R35" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="S35" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T35" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U35" s="42" t="s">
+      <c r="S35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U35" s="41" t="s">
         <v>1958</v>
       </c>
-      <c r="V35" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W35" s="42" t="s">
+      <c r="V35" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W35" s="41" t="s">
         <v>1959</v>
       </c>
-      <c r="X35" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y35" s="42" t="s">
+      <c r="X35" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y35" s="41" t="s">
         <v>1960</v>
       </c>
-      <c r="Z35" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA35" s="42" t="s">
+      <c r="Z35" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA35" s="41" t="s">
         <v>1961</v>
       </c>
-      <c r="AB35" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC35" s="42" t="s">
+      <c r="AB35" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC35" s="41" t="s">
         <v>1962</v>
       </c>
-      <c r="AD35" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE35" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF35" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG35" s="42" t="s">
+      <c r="AD35" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF35" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG35" s="41" t="s">
         <v>1935</v>
       </c>
       <c r="AH35" s="5"/>
@@ -28317,91 +28525,91 @@
       <c r="D36" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="42" t="s">
+      <c r="E36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H36" s="42" t="s">
+      <c r="G36" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="41" t="s">
         <v>814</v>
       </c>
-      <c r="I36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L36" s="42" t="s">
+      <c r="I36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M36" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N36" s="42" t="s">
+      <c r="M36" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N36" s="41" t="s">
         <v>1963</v>
       </c>
-      <c r="O36" s="42" t="s">
+      <c r="O36" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="R36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U36" s="42" t="s">
+      <c r="P36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U36" s="41" t="s">
         <v>1964</v>
       </c>
-      <c r="V36" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W36" s="42" t="s">
+      <c r="V36" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W36" s="41" t="s">
         <v>1965</v>
       </c>
-      <c r="X36" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y36" s="42" t="s">
+      <c r="X36" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y36" s="41" t="s">
         <v>1966</v>
       </c>
-      <c r="Z36" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA36" s="42" t="s">
+      <c r="Z36" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA36" s="41" t="s">
         <v>1967</v>
       </c>
-      <c r="AB36" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF36" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG36" s="42" t="s">
+      <c r="AB36" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF36" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG36" s="41" t="s">
         <v>1935</v>
       </c>
       <c r="AH36" s="5"/>
@@ -28420,91 +28628,91 @@
       <c r="D37" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="42" t="s">
+      <c r="E37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="G37" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="42" t="s">
+      <c r="G37" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="41" t="s">
         <v>1093</v>
       </c>
-      <c r="I37" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J37" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K37" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L37" s="42" t="s">
+      <c r="I37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L37" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M37" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N37" s="42" t="s">
+      <c r="M37" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N37" s="41" t="s">
         <v>1968</v>
       </c>
-      <c r="O37" s="42" t="s">
+      <c r="O37" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P37" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q37" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="R37" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S37" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T37" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U37" s="42" t="s">
+      <c r="P37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U37" s="41" t="s">
         <v>1969</v>
       </c>
-      <c r="V37" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W37" s="42" t="s">
+      <c r="V37" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W37" s="41" t="s">
         <v>1970</v>
       </c>
-      <c r="X37" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y37" s="42" t="s">
+      <c r="X37" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y37" s="41" t="s">
         <v>1971</v>
       </c>
-      <c r="Z37" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA37" s="42" t="s">
+      <c r="Z37" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA37" s="41" t="s">
         <v>1972</v>
       </c>
-      <c r="AB37" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC37" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD37" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE37" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF37" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG37" s="42" t="s">
+      <c r="AB37" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF37" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG37" s="41" t="s">
         <v>1973</v>
       </c>
       <c r="AH37" s="5"/>
@@ -28526,88 +28734,88 @@
       <c r="E38" s="5">
         <v>6.2</v>
       </c>
-      <c r="F38" s="42" t="s">
+      <c r="F38" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="G38" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H38" s="42" t="s">
+      <c r="G38" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="41" t="s">
         <v>639</v>
       </c>
-      <c r="I38" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J38" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K38" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L38" s="42" t="s">
+      <c r="I38" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J38" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L38" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M38" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N38" s="42" t="s">
+      <c r="M38" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N38" s="41" t="s">
         <v>1975</v>
       </c>
-      <c r="O38" s="42" t="s">
+      <c r="O38" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P38" s="42" t="s">
+      <c r="P38" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="Q38" s="42">
+      <c r="Q38" s="41">
         <v>1.8</v>
       </c>
-      <c r="R38" s="42" t="s">
+      <c r="R38" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="S38" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T38" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U38" s="42" t="s">
+      <c r="S38" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T38" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U38" s="41" t="s">
         <v>1976</v>
       </c>
-      <c r="V38" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W38" s="42" t="s">
+      <c r="V38" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W38" s="41" t="s">
         <v>1977</v>
       </c>
-      <c r="X38" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y38" s="42" t="s">
+      <c r="X38" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y38" s="41" t="s">
         <v>1978</v>
       </c>
-      <c r="Z38" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA38" s="42" t="s">
+      <c r="Z38" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA38" s="41" t="s">
         <v>1979</v>
       </c>
-      <c r="AB38" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC38" s="42" t="s">
+      <c r="AB38" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC38" s="41" t="s">
         <v>1980</v>
       </c>
-      <c r="AD38" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE38" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF38" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG38" s="42" t="s">
+      <c r="AD38" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE38" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF38" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG38" s="41" t="s">
         <v>1935</v>
       </c>
       <c r="AH38" s="5"/>
@@ -28626,91 +28834,91 @@
       <c r="D39" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E39" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="42" t="s">
+      <c r="E39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="G39" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="42" t="s">
+      <c r="G39" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="41" t="s">
         <v>1822</v>
       </c>
-      <c r="I39" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J39" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K39" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L39" s="42" t="s">
+      <c r="I39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L39" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="M39" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N39" s="42" t="s">
+      <c r="M39" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N39" s="41" t="s">
         <v>1981</v>
       </c>
-      <c r="O39" s="42" t="s">
+      <c r="O39" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P39" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q39" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="R39" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S39" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T39" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U39" s="42" t="s">
+      <c r="P39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U39" s="41" t="s">
         <v>1982</v>
       </c>
-      <c r="V39" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W39" s="42" t="s">
+      <c r="V39" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W39" s="41" t="s">
         <v>1983</v>
       </c>
-      <c r="X39" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y39" s="42" t="s">
+      <c r="X39" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y39" s="41" t="s">
         <v>1984</v>
       </c>
-      <c r="Z39" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA39" s="42" t="s">
+      <c r="Z39" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA39" s="41" t="s">
         <v>1985</v>
       </c>
-      <c r="AB39" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC39" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD39" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE39" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF39" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG39" s="42" t="s">
+      <c r="AB39" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF39" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG39" s="41" t="s">
         <v>1935</v>
       </c>
       <c r="AH39" s="5"/>
@@ -28729,88 +28937,88 @@
       <c r="D40" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F40" s="42" t="s">
+      <c r="E40" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="G40" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H40" s="42" t="s">
+      <c r="G40" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="41" t="s">
         <v>1986</v>
       </c>
-      <c r="I40" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J40" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K40" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L40" s="42" t="s">
+      <c r="I40" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J40" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K40" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M40" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N40" s="42" t="s">
+      <c r="M40" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N40" s="41" t="s">
         <v>1987</v>
       </c>
-      <c r="O40" s="42" t="s">
+      <c r="O40" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P40" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q40" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="R40" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="S40" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T40" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U40" s="42" t="s">
+      <c r="P40" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q40" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="R40" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="S40" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T40" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U40" s="41" t="s">
         <v>1988</v>
       </c>
-      <c r="V40" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W40" s="42" t="s">
+      <c r="V40" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W40" s="41" t="s">
         <v>1989</v>
       </c>
-      <c r="X40" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y40" s="42" t="s">
+      <c r="X40" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y40" s="41" t="s">
         <v>1990</v>
       </c>
-      <c r="Z40" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA40" s="42" t="s">
+      <c r="Z40" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA40" s="41" t="s">
         <v>1991</v>
       </c>
-      <c r="AB40" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC40" s="42" t="s">
+      <c r="AB40" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC40" s="41" t="s">
         <v>1992</v>
       </c>
-      <c r="AD40" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE40" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF40" s="42" t="s">
+      <c r="AD40" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE40" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF40" s="41" t="s">
         <v>69</v>
       </c>
       <c r="AG40" s="31" t="s">
@@ -28835,85 +29043,85 @@
       <c r="E41" s="5">
         <v>6.5</v>
       </c>
-      <c r="F41" s="42" t="s">
+      <c r="F41" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="G41" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H41" s="42" t="s">
+      <c r="G41" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="41" t="s">
         <v>1993</v>
       </c>
-      <c r="I41" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J41" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K41" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L41" s="42" t="s">
+      <c r="I41" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J41" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K41" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="M41" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N41" s="42" t="s">
+      <c r="M41" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N41" s="41" t="s">
         <v>1994</v>
       </c>
-      <c r="O41" s="42" t="s">
+      <c r="O41" s="41" t="s">
         <v>107</v>
       </c>
-      <c r="P41" s="42" t="s">
+      <c r="P41" s="41" t="s">
         <v>85</v>
       </c>
       <c r="Q41" s="5">
         <v>1.5</v>
       </c>
-      <c r="R41" s="42" t="s">
+      <c r="R41" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="S41" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T41" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U41" s="42" t="s">
+      <c r="S41" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T41" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U41" s="41" t="s">
         <v>1995</v>
       </c>
-      <c r="V41" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W41" s="42" t="s">
+      <c r="V41" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W41" s="41" t="s">
         <v>1996</v>
       </c>
-      <c r="X41" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y41" s="42" t="s">
+      <c r="X41" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y41" s="41" t="s">
         <v>1984</v>
       </c>
-      <c r="Z41" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA41" s="42" t="s">
+      <c r="Z41" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA41" s="41" t="s">
         <v>1997</v>
       </c>
-      <c r="AB41" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC41" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD41" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE41" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF41" s="42" t="s">
+      <c r="AB41" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC41" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD41" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE41" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF41" s="41" t="s">
         <v>69</v>
       </c>
       <c r="AG41" s="31" t="s">
@@ -28935,80 +29143,80 @@
       <c r="D42" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E42" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G42" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="42" t="s">
+      <c r="E42" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="41" t="s">
         <v>1998</v>
       </c>
-      <c r="I42" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J42" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K42" s="42" t="s">
+      <c r="I42" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J42" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K42" s="41" t="s">
         <v>69</v>
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
       <c r="N42" s="5"/>
-      <c r="O42" s="51"/>
+      <c r="O42" s="50"/>
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-      <c r="S42" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="T42" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="U42" s="42" t="s">
+      <c r="S42" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="T42" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="U42" s="41" t="s">
         <v>1999</v>
       </c>
-      <c r="V42" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W42" s="42" t="s">
+      <c r="V42" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W42" s="41" t="s">
         <v>2000</v>
       </c>
-      <c r="X42" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y42" s="42" t="s">
+      <c r="X42" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y42" s="41" t="s">
         <v>2001</v>
       </c>
-      <c r="Z42" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA42" s="42" t="s">
+      <c r="Z42" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA42" s="41" t="s">
         <v>2002</v>
       </c>
-      <c r="AB42" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC42" s="42" t="s">
+      <c r="AB42" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC42" s="41" t="s">
         <v>2003</v>
       </c>
-      <c r="AD42" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE42" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF42" s="42" t="s">
+      <c r="AD42" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE42" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF42" s="41" t="s">
         <v>69</v>
       </c>
       <c r="AG42" s="31" t="s">
         <v>1935</v>
       </c>
-      <c r="AH42" s="42" t="s">
+      <c r="AH42" s="41" t="s">
         <v>435</v>
       </c>
       <c r="AI42" s="5"/>
@@ -29026,7 +29234,7 @@
       <c r="D43" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E43" s="42" t="s">
+      <c r="E43" s="41" t="s">
         <v>69</v>
       </c>
       <c r="F43" s="5"/>
@@ -29073,7 +29281,7 @@
       <c r="D44" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E44" s="42" t="s">
+      <c r="E44" s="41" t="s">
         <v>69</v>
       </c>
       <c r="F44" s="5"/>
@@ -29120,7 +29328,7 @@
       <c r="D45" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E45" s="42" t="s">
+      <c r="E45" s="41" t="s">
         <v>69</v>
       </c>
       <c r="F45" s="5"/>
@@ -29167,7 +29375,7 @@
       <c r="D46" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E46" s="42" t="s">
+      <c r="E46" s="41" t="s">
         <v>69</v>
       </c>
       <c r="F46" s="5"/>
@@ -29214,7 +29422,7 @@
       <c r="D47" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E47" s="42" t="s">
+      <c r="E47" s="41" t="s">
         <v>69</v>
       </c>
       <c r="F47" s="5"/>
@@ -29261,7 +29469,7 @@
       <c r="D48" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="42" t="s">
+      <c r="E48" s="41" t="s">
         <v>69</v>
       </c>
       <c r="F48" s="5"/>
@@ -29308,7 +29516,7 @@
       <c r="D49" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="42" t="s">
+      <c r="E49" s="41" t="s">
         <v>69</v>
       </c>
       <c r="F49" s="29"/>
@@ -29358,8 +29566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF42C5F-9DFA-3743-B117-CD5711D6A10D}">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -29605,12 +29813,12 @@
       <c r="AH17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
@@ -29876,8 +30084,8 @@
       <c r="K20" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="16" t="s">
-        <v>69</v>
+      <c r="L20" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>69</v>
@@ -30188,8 +30396,8 @@
       <c r="K23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="5" t="s">
-        <v>69</v>
+      <c r="L23" s="52" t="s">
+        <v>2118</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>69</v>
@@ -30586,88 +30794,88 @@
       <c r="E27" s="27">
         <v>11.2</v>
       </c>
-      <c r="F27" s="42" t="s">
+      <c r="F27" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="G27" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="H27" s="42" t="s">
+      <c r="G27" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="41" t="s">
         <v>1153</v>
       </c>
-      <c r="I27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="J27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="42" t="s">
+      <c r="I27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="M27" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="N27" s="42" t="s">
+      <c r="M27" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N27" s="41" t="s">
         <v>2059</v>
       </c>
-      <c r="O27" s="42" t="s">
+      <c r="O27" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="P27" s="42" t="s">
+      <c r="P27" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="Q27" s="42">
+      <c r="Q27" s="41">
         <v>0.2</v>
       </c>
-      <c r="R27" s="42" t="s">
+      <c r="R27" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="S27" s="42" t="s">
+      <c r="S27" s="41" t="s">
         <v>2060</v>
       </c>
-      <c r="T27" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="U27" s="42" t="s">
+      <c r="T27" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="U27" s="41" t="s">
         <v>2061</v>
       </c>
-      <c r="V27" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="W27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="X27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA27" s="42" t="s">
+      <c r="V27" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="W27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="X27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA27" s="41" t="s">
         <v>2062</v>
       </c>
-      <c r="AB27" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC27" s="42" t="s">
+      <c r="AB27" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC27" s="41" t="s">
         <v>2063</v>
       </c>
-      <c r="AD27" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF27" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG27" s="42" t="s">
+      <c r="AD27" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF27" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG27" s="41" t="s">
         <v>2064</v>
       </c>
       <c r="AH27" t="s">
@@ -30775,7 +30983,7 @@
       <c r="AF28" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AG28" s="42" t="s">
+      <c r="AG28" s="41" t="s">
         <v>2064</v>
       </c>
       <c r="AH28" t="s">
@@ -31024,8 +31232,8 @@
       <c r="K31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="L31" s="5" t="s">
-        <v>69</v>
+      <c r="L31" s="52" t="s">
+        <v>2118</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>69</v>
@@ -31544,8 +31752,8 @@
       <c r="K36" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="5" t="s">
-        <v>69</v>
+      <c r="L36" s="52" t="s">
+        <v>2118</v>
       </c>
       <c r="M36" s="5" t="s">
         <v>69</v>
@@ -32348,11 +32556,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF262BB-9DE0-3B43-AED9-040842C6C56C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDF262BB-9DE0-3B43-AED9-040842C6C56C}">
   <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView topLeftCell="F29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -32592,12 +32800,12 @@
       <c r="AH17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
@@ -32848,8 +33056,8 @@
       <c r="K20" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="38" t="s">
-        <v>69</v>
+      <c r="L20" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="M20" s="38" t="s">
         <v>69</v>
@@ -32949,8 +33157,8 @@
       <c r="K21" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="38" t="s">
-        <v>69</v>
+      <c r="L21" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="M21" s="38" t="s">
         <v>69</v>
@@ -33970,8 +34178,8 @@
       <c r="K31" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L31" s="38" t="s">
-        <v>69</v>
+      <c r="L31" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="M31" s="38" t="s">
         <v>69</v>
@@ -34484,8 +34692,8 @@
       <c r="N36" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="O36" s="38" t="s">
-        <v>164</v>
+      <c r="O36" s="49" t="s">
+        <v>363</v>
       </c>
       <c r="P36" s="38" t="s">
         <v>85</v>
@@ -34861,7 +35069,7 @@
       <c r="E40">
         <v>7.6</v>
       </c>
-      <c r="F40" s="41" t="s">
+      <c r="F40" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G40" s="38" t="s">
@@ -35182,8 +35390,8 @@
       <c r="K43" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="L43" s="38" t="s">
-        <v>69</v>
+      <c r="L43" s="49" t="s">
+        <v>2118</v>
       </c>
       <c r="M43" s="38" t="s">
         <v>69</v>
@@ -35699,15 +35907,16 @@
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4ADC40-FE89-154C-BA14-7017B573BEE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4ADC40-FE89-154C-BA14-7017B573BEE1}">
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView topLeftCell="F11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="H32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -35949,12 +36158,12 @@
       <c r="AH17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
@@ -36205,8 +36414,8 @@
       <c r="K20" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="16" t="s">
-        <v>69</v>
+      <c r="L20" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="M20" s="16" t="s">
         <v>69</v>
@@ -36591,8 +36800,8 @@
       <c r="E24" t="s">
         <v>470</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>69</v>
+      <c r="F24" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>69</v>
@@ -39038,7 +39247,13 @@
       <c r="E48" t="s">
         <v>69</v>
       </c>
-      <c r="O48" s="48" t="s">
+      <c r="F48" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="L48" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="O48" s="47" t="s">
         <v>164</v>
       </c>
     </row>
@@ -39058,7 +39273,13 @@
       <c r="E49" s="22">
         <v>8.6999999999999993</v>
       </c>
-      <c r="O49" s="48" t="s">
+      <c r="F49" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="L49" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="O49" s="47" t="s">
         <v>164</v>
       </c>
     </row>
@@ -39071,6 +39292,7 @@
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -39078,8 +39300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06D7356F-D44F-E44F-B4F3-F90988F91EAF}">
   <dimension ref="A1:AN51"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="E21" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -39321,12 +39543,12 @@
       <c r="AH17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:40" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
@@ -40478,7 +40700,13 @@
       <c r="E29">
         <v>12.6</v>
       </c>
-      <c r="O29" s="48" t="s">
+      <c r="F29" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="L29" s="47" t="s">
+        <v>640</v>
+      </c>
+      <c r="O29" s="47" t="s">
         <v>641</v>
       </c>
     </row>
@@ -40498,7 +40726,13 @@
       <c r="E30">
         <v>9.9</v>
       </c>
-      <c r="O30" s="48" t="s">
+      <c r="F30" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="L30" s="47" t="s">
+        <v>640</v>
+      </c>
+      <c r="O30" s="47" t="s">
         <v>641</v>
       </c>
     </row>
@@ -40518,7 +40752,13 @@
       <c r="E31">
         <v>12.7</v>
       </c>
-      <c r="O31" s="48" t="s">
+      <c r="F31" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="L31" s="47" t="s">
+        <v>640</v>
+      </c>
+      <c r="O31" s="47" t="s">
         <v>641</v>
       </c>
     </row>
@@ -40538,7 +40778,13 @@
       <c r="E32">
         <v>10.4</v>
       </c>
-      <c r="O32" s="48" t="s">
+      <c r="F32" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="L32" s="47" t="s">
+        <v>640</v>
+      </c>
+      <c r="O32" s="47" t="s">
         <v>641</v>
       </c>
     </row>
@@ -40558,7 +40804,13 @@
       <c r="E33" t="s">
         <v>69</v>
       </c>
-      <c r="O33" s="48" t="s">
+      <c r="F33" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="L33" s="47" t="s">
+        <v>640</v>
+      </c>
+      <c r="O33" s="47" t="s">
         <v>641</v>
       </c>
     </row>
@@ -40578,7 +40830,7 @@
       <c r="E34">
         <v>8.6999999999999993</v>
       </c>
-      <c r="O34" s="49"/>
+      <c r="O34" s="48"/>
       <c r="AN34" t="s">
         <v>213</v>
       </c>
@@ -40735,8 +40987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9802DA40-529E-6F40-9498-050255CEB94A}">
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView topLeftCell="H22" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView topLeftCell="G64" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -40978,12 +41230,12 @@
       <c r="AH17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
@@ -41320,8 +41572,8 @@
       <c r="E21" t="s">
         <v>69</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>69</v>
+      <c r="F21" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>69</v>
@@ -44005,8 +44257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501BD441-33E8-4F41-A295-E0FB3E4BD939}">
   <dimension ref="A1:AN51"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -44248,12 +44500,12 @@
       <c r="AH17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:40" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
@@ -44587,8 +44839,8 @@
       <c r="E21" t="s">
         <v>833</v>
       </c>
-      <c r="F21" s="16" t="s">
-        <v>69</v>
+      <c r="F21" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>69</v>
@@ -44605,8 +44857,8 @@
       <c r="K21" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="16" t="s">
-        <v>69</v>
+      <c r="L21" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="M21" s="16" t="s">
         <v>69</v>
@@ -44614,7 +44866,7 @@
       <c r="N21" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="O21" s="48" t="s">
+      <c r="O21" s="47" t="s">
         <v>2118</v>
       </c>
       <c r="P21" s="16" t="s">
@@ -44688,8 +44940,8 @@
       <c r="E22" t="s">
         <v>838</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>69</v>
+      <c r="F22" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="G22" s="16" t="s">
         <v>69</v>
@@ -44706,8 +44958,8 @@
       <c r="K22" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="16" t="s">
-        <v>69</v>
+      <c r="L22" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="M22" s="16" t="s">
         <v>69</v>
@@ -44715,7 +44967,7 @@
       <c r="N22" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="O22" s="48" t="s">
+      <c r="O22" s="47" t="s">
         <v>2118</v>
       </c>
       <c r="P22" s="16" t="s">
@@ -44792,8 +45044,8 @@
       <c r="E23">
         <v>12.4</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>69</v>
+      <c r="F23" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>69</v>
@@ -44810,8 +45062,8 @@
       <c r="K23" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="16" t="s">
-        <v>69</v>
+      <c r="L23" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="M23" s="16" t="s">
         <v>69</v>
@@ -44819,7 +45071,7 @@
       <c r="N23" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="O23" s="48" t="s">
+      <c r="O23" s="47" t="s">
         <v>2118</v>
       </c>
       <c r="P23" s="16" t="s">
@@ -44896,8 +45148,8 @@
       <c r="E24">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F24" s="16" t="s">
-        <v>69</v>
+      <c r="F24" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>69</v>
@@ -44914,8 +45166,8 @@
       <c r="K24" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L24" s="16" t="s">
-        <v>69</v>
+      <c r="L24" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="M24" s="16" t="s">
         <v>69</v>
@@ -44923,7 +45175,7 @@
       <c r="N24" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="O24" s="48" t="s">
+      <c r="O24" s="47" t="s">
         <v>2118</v>
       </c>
       <c r="P24" s="16" t="s">
@@ -45311,7 +45563,13 @@
       <c r="E28">
         <v>7.6</v>
       </c>
-      <c r="O28" s="50" t="s">
+      <c r="F28" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L28" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O28" s="49" t="s">
         <v>84</v>
       </c>
     </row>
@@ -45331,7 +45589,13 @@
       <c r="E29">
         <v>7.6</v>
       </c>
-      <c r="O29" s="50" t="s">
+      <c r="F29" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O29" s="49" t="s">
         <v>84</v>
       </c>
     </row>
@@ -45351,7 +45615,13 @@
       <c r="E30">
         <v>6.3</v>
       </c>
-      <c r="O30" s="50" t="s">
+      <c r="F30" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O30" s="49" t="s">
         <v>84</v>
       </c>
     </row>
@@ -45371,7 +45641,13 @@
       <c r="E31" t="s">
         <v>69</v>
       </c>
-      <c r="O31" s="50" t="s">
+      <c r="F31" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L31" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O31" s="49" t="s">
         <v>84</v>
       </c>
     </row>
@@ -45391,7 +45667,13 @@
       <c r="E32">
         <v>6.2</v>
       </c>
-      <c r="O32" s="50" t="s">
+      <c r="F32" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="L32" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="O32" s="49" t="s">
         <v>84</v>
       </c>
     </row>
@@ -45411,7 +45693,7 @@
       <c r="E33" t="s">
         <v>69</v>
       </c>
-      <c r="O33" s="49"/>
+      <c r="O33" s="48"/>
       <c r="AN33" t="s">
         <v>881</v>
       </c>
@@ -45626,11 +45908,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38264B23-79A7-9F46-9206-45621E21C14C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38264B23-79A7-9F46-9206-45621E21C14C}">
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -45872,12 +46154,12 @@
       <c r="AH17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
@@ -46143,8 +46425,8 @@
       <c r="N20" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="O20" s="16" t="s">
-        <v>69</v>
+      <c r="O20" s="47" t="s">
+        <v>75</v>
       </c>
       <c r="P20" s="16" t="s">
         <v>69</v>
@@ -46419,8 +46701,8 @@
       <c r="E23" t="s">
         <v>908</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>69</v>
+      <c r="F23" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>69</v>
@@ -46437,8 +46719,8 @@
       <c r="K23" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="16" t="s">
-        <v>69</v>
+      <c r="L23" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="M23" s="16" t="s">
         <v>69</v>
@@ -46446,7 +46728,7 @@
       <c r="N23" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="O23" s="48" t="s">
+      <c r="O23" s="47" t="s">
         <v>2118</v>
       </c>
       <c r="P23" s="16" t="s">
@@ -48346,7 +48628,13 @@
       <c r="E42">
         <v>11.9</v>
       </c>
-      <c r="O42" s="48" t="s">
+      <c r="F42" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="L42" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="O42" s="47" t="s">
         <v>164</v>
       </c>
       <c r="U42" t="s">
@@ -48375,7 +48663,13 @@
       <c r="E43" t="s">
         <v>69</v>
       </c>
-      <c r="O43" s="48" t="s">
+      <c r="F43" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="L43" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="O43" s="47" t="s">
         <v>164</v>
       </c>
     </row>
@@ -48395,7 +48689,7 @@
       <c r="E44">
         <v>11.1</v>
       </c>
-      <c r="O44" s="49"/>
+      <c r="O44" s="48"/>
       <c r="AM44" t="s">
         <v>1013</v>
       </c>
@@ -48464,15 +48758,16 @@
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6780897-29FE-6041-9A32-D639761B8D34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6780897-29FE-6041-9A32-D639761B8D34}">
   <dimension ref="A1:AN51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="C11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -48714,12 +49009,12 @@
       <c r="AH17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:40" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
@@ -48846,7 +49141,7 @@
       <c r="D19" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="50" t="s">
+      <c r="E19" s="49" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="16" t="s">
@@ -50243,6 +50538,7 @@
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -50251,7 +50547,7 @@
   <dimension ref="A1:AM51"/>
   <sheetViews>
     <sheetView topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="F34" sqref="F34:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
@@ -50495,12 +50791,12 @@
       <c r="AH17" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="AI17" s="52" t="s">
+      <c r="AI17" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="55"/>
     </row>
     <row r="18" spans="1:38" ht="16" thickBot="1">
       <c r="A18" s="13" t="s">
@@ -50855,8 +51151,8 @@
       <c r="K21" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L21" s="16" t="s">
-        <v>69</v>
+      <c r="L21" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="M21" s="16" t="s">
         <v>69</v>
@@ -51769,8 +52065,8 @@
       <c r="K30" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="L30" s="16" t="s">
-        <v>69</v>
+      <c r="L30" s="47" t="s">
+        <v>2118</v>
       </c>
       <c r="M30" s="16" t="s">
         <v>69</v>
@@ -52155,7 +52451,13 @@
       <c r="E34" t="s">
         <v>69</v>
       </c>
-      <c r="O34" s="48" t="s">
+      <c r="F34" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="O34" s="47" t="s">
         <v>92</v>
       </c>
       <c r="AM34" t="s">
@@ -52178,7 +52480,13 @@
       <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="O35" s="48" t="s">
+      <c r="F35" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="L35" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="O35" s="47" t="s">
         <v>92</v>
       </c>
     </row>
@@ -52198,7 +52506,13 @@
       <c r="E36" t="s">
         <v>69</v>
       </c>
-      <c r="O36" s="48" t="s">
+      <c r="F36" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="L36" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="O36" s="47" t="s">
         <v>92</v>
       </c>
     </row>
@@ -52218,7 +52532,13 @@
       <c r="E37">
         <v>9.1999999999999993</v>
       </c>
-      <c r="O37" s="48" t="s">
+      <c r="F37" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="L37" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="O37" s="47" t="s">
         <v>92</v>
       </c>
     </row>
@@ -52238,7 +52558,13 @@
       <c r="E38" t="s">
         <v>69</v>
       </c>
-      <c r="O38" s="48" t="s">
+      <c r="F38" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="L38" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="O38" s="47" t="s">
         <v>92</v>
       </c>
     </row>
@@ -52258,7 +52584,13 @@
       <c r="E39" t="s">
         <v>69</v>
       </c>
-      <c r="O39" s="48" t="s">
+      <c r="F39" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="L39" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="O39" s="47" t="s">
         <v>92</v>
       </c>
     </row>
@@ -52278,7 +52610,7 @@
       <c r="E40">
         <v>8.3000000000000007</v>
       </c>
-      <c r="O40" s="49"/>
+      <c r="O40" s="48"/>
       <c r="AM40" t="s">
         <v>1013</v>
       </c>
